--- a/1. Blockchain Exploits/vulns-in-bc-complete.xlsx
+++ b/1. Blockchain Exploits/vulns-in-bc-complete.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop\10. Submission Work\8. Uncovering Vulnerabilities in Blockchain\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop\10. Submission Work\8. Vulnerabilities in Blockchain\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391EEAE-2943-4D7D-A223-EE882E1A1B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76EE18-1359-45F5-9576-33EBE5AEC9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rekt-all" sheetId="1" r:id="rId1"/>
+    <sheet name="exploits-data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2001,18 +2001,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2022,6 +2025,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2382,8 +2386,8 @@
   <dimension ref="A1:AA984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H234" sqref="H234"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N241" sqref="N241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10982,7 +10986,7 @@
         <v>44149</v>
       </c>
       <c r="D194" s="8" t="str">
-        <f t="shared" ref="D194:D257" si="3">TEXT(C194, "yyyy")</f>
+        <f t="shared" ref="D194:D213" si="3">TEXT(C194, "yyyy")</f>
         <v>2020</v>
       </c>
       <c r="E194" s="9">
